--- a/Excel_project.xlsx
+++ b/Excel_project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MaryiaMarkava\Desktop\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6C87B8A-5C89-43CD-968B-9FE0B1A608BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0339715C-7D42-4B1F-90DF-426B928CBD32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{DBDF4D34-7C30-4BD9-B8FD-1ABCA85B3B42}"/>
   </bookViews>
@@ -733,11 +733,9 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:rPr lang="en-US" sz="2400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:sysClr val="window" lastClr="FFFFFF">
-                    <a:lumMod val="50000"/>
-                  </a:sysClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1750,11 +1748,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr algn="ctr">
-                  <a:defRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                  <a:defRPr lang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="bg1">
-                        <a:lumMod val="50000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -1762,11 +1758,9 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                  <a:rPr lang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="bg1">
-                        <a:lumMod val="50000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -1781,8 +1775,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.47631635312063719"/>
-              <c:y val="0.85138785170281228"/>
+              <c:x val="0.48000977464023892"/>
+              <c:y val="0.86726084239470069"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -1798,11 +1792,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr">
-                <a:defRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:defRPr lang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="bg1">
-                      <a:lumMod val="50000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -1837,9 +1829,7 @@
             <a:pPr algn="ctr">
               <a:defRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="50000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1879,11 +1869,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr algn="ctr">
-                  <a:defRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                  <a:defRPr lang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="bg1">
-                        <a:lumMod val="50000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -1891,11 +1879,9 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                  <a:rPr lang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="bg1">
-                        <a:lumMod val="50000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -1927,11 +1913,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr">
-                <a:defRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:defRPr lang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="bg1">
-                      <a:lumMod val="50000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -1960,9 +1944,7 @@
             <a:pPr algn="ctr">
               <a:defRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="50000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -2067,12 +2049,10 @@
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr>
-              <a:defRPr lang="en-US" sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr lang="en-US" sz="2400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="50000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -2080,7 +2060,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" sz="2400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
               <a:t>GDP per capita</a:t>
             </a:r>
           </a:p>
@@ -2098,12 +2085,10 @@
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr>
-            <a:defRPr lang="en-US" sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr lang="en-US" sz="2400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -3103,11 +3088,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr algn="ctr" rtl="0">
-                  <a:defRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                  <a:defRPr lang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="bg1">
-                        <a:lumMod val="50000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -3115,7 +3098,11 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>Country</a:t>
                 </a:r>
               </a:p>
@@ -3125,8 +3112,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.49868774748195466"/>
-              <c:y val="0.84749759938544267"/>
+              <c:x val="0.50258068458183758"/>
+              <c:y val="0.77334798775153102"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -3142,11 +3129,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
-                <a:defRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:defRPr lang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="bg1">
-                      <a:lumMod val="50000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -3181,9 +3166,7 @@
             <a:pPr algn="ctr">
               <a:defRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="50000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -3223,11 +3206,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr algn="ctr" rtl="0">
-                  <a:defRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                  <a:defRPr lang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="bg1">
-                        <a:lumMod val="50000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -3235,7 +3216,14 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:rPr>
                   <a:t>Value</a:t>
                 </a:r>
               </a:p>
@@ -3254,11 +3242,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
-                <a:defRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:defRPr lang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="bg1">
-                      <a:lumMod val="50000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -3284,12 +3270,10 @@
           <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr algn="ctr">
+            <a:pPr algn="ctr" rtl="0">
               <a:defRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="50000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -3398,11 +3382,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr" rtl="0">
-              <a:defRPr lang="en-US" sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr lang="en-US" sz="2400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:sysClr val="window" lastClr="FFFFFF">
-                    <a:lumMod val="50000"/>
-                  </a:sysClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -3410,11 +3392,9 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:rPr lang="en-US" sz="2400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:sysClr val="window" lastClr="FFFFFF">
-                    <a:lumMod val="50000"/>
-                  </a:sysClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -3446,11 +3426,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr" rtl="0">
-            <a:defRPr lang="en-US" sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr lang="en-US" sz="2400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:sysClr val="window" lastClr="FFFFFF">
-                  <a:lumMod val="50000"/>
-                </a:sysClr>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -4421,11 +4399,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                  <a:defRPr lang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="bg1">
-                        <a:lumMod val="50000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -4433,7 +4409,11 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>Country</a:t>
                 </a:r>
               </a:p>
@@ -4452,11 +4432,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:defRPr lang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="bg1">
-                      <a:lumMod val="50000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -4491,9 +4469,7 @@
             <a:pPr algn="ctr">
               <a:defRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="50000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -4533,11 +4509,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                  <a:defRPr lang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="bg1">
-                        <a:lumMod val="50000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -4545,7 +4519,11 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>Value</a:t>
                 </a:r>
               </a:p>
@@ -4564,11 +4542,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:defRPr lang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="bg1">
-                      <a:lumMod val="50000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -4597,9 +4573,7 @@
             <a:pPr>
               <a:defRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="50000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -4708,11 +4682,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr" rtl="0">
-              <a:defRPr lang="en-US" sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr lang="en-US" sz="2400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:sysClr val="window" lastClr="FFFFFF">
-                    <a:lumMod val="50000"/>
-                  </a:sysClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -4720,11 +4692,9 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:rPr lang="en-US" sz="2400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:sysClr val="window" lastClr="FFFFFF">
-                    <a:lumMod val="50000"/>
-                  </a:sysClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -5748,11 +5718,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                  <a:defRPr lang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="bg1">
-                        <a:lumMod val="50000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -5760,12 +5728,24 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>Country</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.50339184408371795"/>
+              <c:y val="0.82803324618093255"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5799,9 +5779,7 @@
             <a:pPr algn="ctr">
               <a:defRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="50000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -5841,11 +5819,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                  <a:defRPr lang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="bg1">
-                        <a:lumMod val="50000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -5853,7 +5829,11 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>Value</a:t>
                 </a:r>
               </a:p>
@@ -5886,9 +5866,7 @@
             <a:pPr>
               <a:defRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="50000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -5978,12 +5956,10 @@
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr>
-              <a:defRPr lang="en-US" sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr lang="en-US" sz="2400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="50000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -5991,7 +5967,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" sz="2400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
               <a:t>Generosity</a:t>
             </a:r>
           </a:p>
@@ -6009,12 +5992,10 @@
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr>
-            <a:defRPr lang="en-US" sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr lang="en-US" sz="2400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -6998,11 +6979,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                  <a:defRPr lang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="bg1">
-                        <a:lumMod val="50000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -7010,7 +6989,11 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>Country</a:t>
                 </a:r>
               </a:p>
@@ -7037,11 +7020,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:defRPr lang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="bg1">
-                      <a:lumMod val="50000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -7076,9 +7057,7 @@
             <a:pPr>
               <a:defRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="50000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -7118,11 +7097,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                  <a:defRPr lang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="bg1">
-                        <a:lumMod val="50000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -7130,7 +7107,11 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>Value</a:t>
                 </a:r>
               </a:p>
@@ -7149,11 +7130,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:defRPr lang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="bg1">
-                      <a:lumMod val="50000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -7182,9 +7161,7 @@
             <a:pPr>
               <a:defRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="50000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -7292,12 +7269,10 @@
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr>
-              <a:defRPr lang="en-US" sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr lang="en-US" sz="2400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="50000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -7305,7 +7280,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" sz="2400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
               <a:t>Perceptions of corruption</a:t>
             </a:r>
           </a:p>
@@ -7323,12 +7305,10 @@
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr>
-            <a:defRPr lang="en-US" sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr lang="en-US" sz="2400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -8302,11 +8282,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                  <a:defRPr lang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="bg1">
-                        <a:lumMod val="50000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -8314,7 +8292,11 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>Country</a:t>
                 </a:r>
               </a:p>
@@ -8341,11 +8323,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:defRPr lang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="bg1">
-                      <a:lumMod val="50000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -8380,9 +8360,7 @@
             <a:pPr>
               <a:defRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="50000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -8422,11 +8400,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                  <a:defRPr lang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="bg1">
-                        <a:lumMod val="50000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -8434,7 +8410,11 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>Value</a:t>
                 </a:r>
               </a:p>
@@ -8453,11 +8433,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:defRPr lang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="bg1">
-                      <a:lumMod val="50000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -8486,9 +8464,7 @@
             <a:pPr>
               <a:defRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="50000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -8595,11 +8571,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr lang="en-US" sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr lang="en-US" sz="1440" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="50000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -8607,19 +8581,38 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" sz="2400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
               <a:t>Happiness</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
+              <a:rPr lang="en-US" sz="2400" b="1" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t> scrore</a:t>
             </a:r>
           </a:p>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-US" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -8636,11 +8629,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr lang="en-US" sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr lang="en-US" sz="1440" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -9614,11 +9605,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                  <a:defRPr lang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="bg1">
-                        <a:lumMod val="50000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -9626,7 +9615,11 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>Country</a:t>
                 </a:r>
               </a:p>
@@ -9653,11 +9646,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:defRPr lang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="bg1">
-                      <a:lumMod val="50000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -9692,9 +9683,7 @@
             <a:pPr>
               <a:defRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="50000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -9734,11 +9723,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                  <a:defRPr lang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="bg1">
-                        <a:lumMod val="50000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -9746,7 +9733,11 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>Value</a:t>
                 </a:r>
               </a:p>
@@ -9765,11 +9756,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:defRPr lang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="bg1">
-                      <a:lumMod val="50000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -9798,9 +9787,7 @@
             <a:pPr>
               <a:defRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="50000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -13553,8 +13540,8 @@
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>370</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:row>369</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -21372,7 +21359,7 @@
 
 <file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
-  <slicer name="country" xr10:uid="{9881C613-26FD-40B2-9D22-A771AC6E2F84}" cache="Slicer_country" caption="Country" startItem="106" style="SlicerStyleLight6" rowHeight="241300"/>
+  <slicer name="country" xr10:uid="{9881C613-26FD-40B2-9D22-A771AC6E2F84}" cache="Slicer_country" caption="Country" startItem="105" style="SlicerStyleLight6" rowHeight="241300"/>
   <slicer name="region" xr10:uid="{4DDA8C6A-EEC6-4B9B-A42E-CEFF2BEBB9BC}" cache="Slicer_region" caption="Region" style="SlicerStyleLight6" rowHeight="241300"/>
 </slicers>
 </file>
@@ -25752,7 +25739,7 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="G368" sqref="G368"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
